--- a/Data/Temp/Reports/ZEUFI037-Morocco-2025 02.xlsx
+++ b/Data/Temp/Reports/ZEUFI037-Morocco-2025 02.xlsx
@@ -166,51 +166,51 @@
     <t>2000002211</t>
   </si>
   <si>
+    <t>0000105131</t>
+  </si>
+  <si>
+    <t>STE TRANS DRISSIA BETON SARLU</t>
+  </si>
+  <si>
     <t>0000102614</t>
   </si>
   <si>
     <t>STE TRANS DRISSIA BETON</t>
   </si>
   <si>
-    <t>0000105131</t>
-  </si>
-  <si>
-    <t>STE TRANS DRISSIA BETON SARLU</t>
-  </si>
-  <si>
     <t>2000002965</t>
   </si>
   <si>
     <t>COMPENSATIONc</t>
   </si>
   <si>
+    <t>0000100325</t>
+  </si>
+  <si>
+    <t>AFRIC POIDS LOURDS</t>
+  </si>
+  <si>
     <t>0000100467</t>
   </si>
   <si>
-    <t>AFRIC POIDS LOURDS</t>
-  </si>
-  <si>
     <t>AB08</t>
   </si>
   <si>
     <t>Betocim Temara2</t>
   </si>
   <si>
-    <t>0000100325</t>
-  </si>
-  <si>
     <t>2000002966</t>
   </si>
   <si>
+    <t>0000103844</t>
+  </si>
+  <si>
+    <t>MULTI COL TRANS</t>
+  </si>
+  <si>
     <t>0000102008</t>
   </si>
   <si>
-    <t>MULTI COL TRANS</t>
-  </si>
-  <si>
-    <t>0000103844</t>
-  </si>
-  <si>
     <t>2000002967</t>
   </si>
   <si>
@@ -226,33 +226,33 @@
     <t>2000002968</t>
   </si>
   <si>
+    <t>0000103772</t>
+  </si>
+  <si>
+    <t>LAMD TRANSPORT</t>
+  </si>
+  <si>
     <t>0000101979</t>
   </si>
   <si>
-    <t>LAMD TRANSPORT</t>
-  </si>
-  <si>
-    <t>0000103772</t>
-  </si>
-  <si>
     <t>2000002969</t>
   </si>
   <si>
     <t>2000002970</t>
   </si>
   <si>
+    <t>0000102068</t>
+  </si>
+  <si>
+    <t>LOGISTIC AZTA</t>
+  </si>
+  <si>
     <t>0000104060</t>
   </si>
   <si>
     <t>LOGISTIC AZTA SARL</t>
   </si>
   <si>
-    <t>0000102068</t>
-  </si>
-  <si>
-    <t>LOGISTIC AZTA</t>
-  </si>
-  <si>
     <t>2000002971</t>
   </si>
   <si>
@@ -280,18 +280,18 @@
     <t>2000002973</t>
   </si>
   <si>
+    <t>0000102223</t>
+  </si>
+  <si>
+    <t>TRANS ZINEELABIDINE SARL</t>
+  </si>
+  <si>
     <t>0000104367</t>
   </si>
   <si>
     <t>TRANS ZINEELABIDINEN SARL</t>
   </si>
   <si>
-    <t>0000102223</t>
-  </si>
-  <si>
-    <t>TRANS ZINEELABIDINE SARL</t>
-  </si>
-  <si>
     <t>2000003089</t>
   </si>
   <si>
@@ -346,18 +346,18 @@
     <t>2000003094</t>
   </si>
   <si>
+    <t>0000102190</t>
+  </si>
+  <si>
+    <t>TOTAL BETON</t>
+  </si>
+  <si>
     <t>0000104296</t>
   </si>
   <si>
     <t>TOTAL BETON SARL</t>
   </si>
   <si>
-    <t>0000102190</t>
-  </si>
-  <si>
-    <t>TOTAL BETON</t>
-  </si>
-  <si>
     <t>2000003095</t>
   </si>
   <si>
@@ -376,33 +376,33 @@
     <t>2000003190</t>
   </si>
   <si>
+    <t>0000102957</t>
+  </si>
+  <si>
+    <t>MALABO TRANS SARL</t>
+  </si>
+  <si>
     <t>0000101575</t>
   </si>
   <si>
     <t>MALABO TRANS  SARL</t>
   </si>
   <si>
-    <t>0000102957</t>
-  </si>
-  <si>
-    <t>MALABO TRANS SARL</t>
-  </si>
-  <si>
     <t>2000003266</t>
   </si>
   <si>
+    <t>0000102709</t>
+  </si>
+  <si>
+    <t>SECAV</t>
+  </si>
+  <si>
     <t>0000101441</t>
   </si>
   <si>
     <t>SOCIETE SECAV</t>
   </si>
   <si>
-    <t>0000102709</t>
-  </si>
-  <si>
-    <t>SECAV</t>
-  </si>
-  <si>
     <t>2000003426</t>
   </si>
   <si>
@@ -415,6 +415,33 @@
     <t>2000000157</t>
   </si>
   <si>
+    <t>0034210000</t>
+  </si>
+  <si>
+    <t>CLIENTS</t>
+  </si>
+  <si>
+    <t>0000104951</t>
+  </si>
+  <si>
+    <t>OMEGA ROUTE</t>
+  </si>
+  <si>
+    <t>GM01</t>
+  </si>
+  <si>
+    <t>Business area 0001</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -422,33 +449,6 @@
   </si>
   <si>
     <t>STE OMEGA ROUTE</t>
-  </si>
-  <si>
-    <t>GM01</t>
-  </si>
-  <si>
-    <t>Business area 0001</t>
-  </si>
-  <si>
-    <t>0034210000</t>
-  </si>
-  <si>
-    <t>CLIENTS</t>
-  </si>
-  <si>
-    <t>0000104951</t>
-  </si>
-  <si>
-    <t>OMEGA ROUTE</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>BT03</t>
@@ -2293,34 +2293,34 @@
         <v>0.00</v>
       </c>
       <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" t="s">
         <v>10</v>
       </c>
-      <c r="R14" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" t="s">
-        <v>12</v>
-      </c>
       <c r="T14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V14" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X14" s="3">
         <v>8324.33</v>
       </c>
-      <c r="W14" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y14" s="3">
         <v>0.00</v>
       </c>
       <c r="Z14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="s">
         <v>9</v>
@@ -2350,10 +2350,10 @@
         <v>52</v>
       </c>
       <c r="AJ14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2406,34 +2406,34 @@
         <v>0.00</v>
       </c>
       <c r="Q15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" t="s">
         <v>12</v>
       </c>
-      <c r="R15" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" t="s">
-        <v>10</v>
-      </c>
       <c r="T15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V15" s="3">
-        <v>0.00</v>
+        <v>8324.33</v>
       </c>
       <c r="W15" s="3">
         <v>0.00</v>
       </c>
       <c r="X15" s="3">
-        <v>8324.33</v>
+        <v>0.00</v>
       </c>
       <c r="Y15" s="3">
         <v>0.00</v>
       </c>
       <c r="Z15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="s">
         <v>9</v>
@@ -2463,10 +2463,10 @@
         <v>54</v>
       </c>
       <c r="AJ15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -2519,34 +2519,34 @@
         <v>0.00</v>
       </c>
       <c r="Q16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" t="s">
         <v>10</v>
       </c>
-      <c r="R16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" t="s">
-        <v>12</v>
-      </c>
       <c r="T16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V16" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X16" s="3">
         <v>58898.47</v>
       </c>
-      <c r="W16" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y16" s="3">
         <v>0.00</v>
       </c>
       <c r="Z16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="s">
         <v>9</v>
@@ -2576,10 +2576,10 @@
         <v>58</v>
       </c>
       <c r="AJ16" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2632,34 +2632,34 @@
         <v>0.00</v>
       </c>
       <c r="Q17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" t="s">
         <v>12</v>
       </c>
-      <c r="R17" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" t="s">
-        <v>10</v>
-      </c>
       <c r="T17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V17" s="3">
-        <v>0.00</v>
+        <v>58898.47</v>
       </c>
       <c r="W17" s="3">
         <v>0.00</v>
       </c>
       <c r="X17" s="3">
-        <v>58898.47</v>
+        <v>0.00</v>
       </c>
       <c r="Y17" s="3">
         <v>0.00</v>
       </c>
       <c r="Z17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="s">
         <v>9</v>
@@ -2683,16 +2683,16 @@
         <v>9</v>
       </c>
       <c r="AH17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AI17" t="s">
         <v>58</v>
       </c>
       <c r="AJ17" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2745,34 +2745,34 @@
         <v>0.00</v>
       </c>
       <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" t="s">
         <v>10</v>
       </c>
-      <c r="R18" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" t="s">
-        <v>12</v>
-      </c>
       <c r="T18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V18" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X18" s="3">
         <v>53990.89</v>
       </c>
-      <c r="W18" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y18" s="3">
         <v>0.00</v>
       </c>
       <c r="Z18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="s">
         <v>9</v>
@@ -2802,10 +2802,10 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -2858,34 +2858,34 @@
         <v>0.00</v>
       </c>
       <c r="Q19" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" t="s">
         <v>12</v>
       </c>
-      <c r="R19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" t="s">
-        <v>10</v>
-      </c>
       <c r="T19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V19" s="3">
-        <v>0.00</v>
+        <v>53990.89</v>
       </c>
       <c r="W19" s="3">
         <v>0.00</v>
       </c>
       <c r="X19" s="3">
-        <v>53990.89</v>
+        <v>0.00</v>
       </c>
       <c r="Y19" s="3">
         <v>0.00</v>
       </c>
       <c r="Z19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA19" t="s">
         <v>9</v>
@@ -2915,10 +2915,10 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -3197,34 +3197,34 @@
         <v>0.00</v>
       </c>
       <c r="Q22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" t="s">
         <v>10</v>
       </c>
-      <c r="R22" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" t="s">
-        <v>12</v>
-      </c>
       <c r="T22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V22" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X22" s="3">
         <v>6222.95</v>
       </c>
-      <c r="W22" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y22" s="3">
         <v>0.00</v>
       </c>
       <c r="Z22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="s">
         <v>9</v>
@@ -3254,10 +3254,10 @@
         <v>72</v>
       </c>
       <c r="AJ22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:37">
@@ -3310,34 +3310,34 @@
         <v>0.00</v>
       </c>
       <c r="Q23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" t="s">
         <v>12</v>
       </c>
-      <c r="R23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S23" t="s">
-        <v>10</v>
-      </c>
       <c r="T23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V23" s="3">
-        <v>0.00</v>
+        <v>6222.95</v>
       </c>
       <c r="W23" s="3">
         <v>0.00</v>
       </c>
       <c r="X23" s="3">
-        <v>6222.95</v>
+        <v>0.00</v>
       </c>
       <c r="Y23" s="3">
         <v>0.00</v>
       </c>
       <c r="Z23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="s">
         <v>9</v>
@@ -3367,10 +3367,10 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:37">
@@ -3474,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="AH24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AI24" t="s">
         <v>72</v>
@@ -3587,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="AH25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s">
         <v>72</v>
@@ -3649,34 +3649,34 @@
         <v>0.00</v>
       </c>
       <c r="Q26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" t="s">
         <v>12</v>
       </c>
-      <c r="R26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S26" t="s">
-        <v>10</v>
-      </c>
       <c r="T26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V26" s="3">
-        <v>0.00</v>
+        <v>10515.65</v>
       </c>
       <c r="W26" s="3">
         <v>0.00</v>
       </c>
       <c r="X26" s="3">
-        <v>10515.65</v>
+        <v>0.00</v>
       </c>
       <c r="Y26" s="3">
         <v>0.00</v>
       </c>
       <c r="Z26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA26" t="s">
         <v>9</v>
@@ -3706,10 +3706,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -3762,34 +3762,34 @@
         <v>0.00</v>
       </c>
       <c r="Q27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
         <v>10</v>
       </c>
-      <c r="R27" t="s">
-        <v>11</v>
-      </c>
-      <c r="S27" t="s">
-        <v>12</v>
-      </c>
       <c r="T27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V27" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X27" s="3">
         <v>10515.65</v>
       </c>
-      <c r="W27" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y27" s="3">
         <v>0.00</v>
       </c>
       <c r="Z27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="s">
         <v>9</v>
@@ -3819,10 +3819,10 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -4327,34 +4327,34 @@
         <v>0.00</v>
       </c>
       <c r="Q32" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32" t="s">
         <v>12</v>
       </c>
-      <c r="R32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S32" t="s">
-        <v>10</v>
-      </c>
       <c r="T32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V32" s="3">
-        <v>0.00</v>
+        <v>55730.02</v>
       </c>
       <c r="W32" s="3">
         <v>0.00</v>
       </c>
       <c r="X32" s="3">
-        <v>55730.02</v>
+        <v>0.00</v>
       </c>
       <c r="Y32" s="3">
         <v>0.00</v>
       </c>
       <c r="Z32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="s">
         <v>9</v>
@@ -4384,10 +4384,10 @@
         <v>90</v>
       </c>
       <c r="AJ32" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:37">
@@ -4440,34 +4440,34 @@
         <v>0.00</v>
       </c>
       <c r="Q33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" t="s">
         <v>10</v>
       </c>
-      <c r="R33" t="s">
-        <v>11</v>
-      </c>
-      <c r="S33" t="s">
-        <v>12</v>
-      </c>
       <c r="T33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U33" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V33" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X33" s="3">
         <v>55730.02</v>
       </c>
-      <c r="W33" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y33" s="3">
         <v>0.00</v>
       </c>
       <c r="Z33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA33" t="s">
         <v>9</v>
@@ -4497,10 +4497,10 @@
         <v>92</v>
       </c>
       <c r="AJ33" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AK33" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:37">
@@ -4779,34 +4779,34 @@
         <v>0.00</v>
       </c>
       <c r="Q36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" t="s">
         <v>10</v>
       </c>
-      <c r="R36" t="s">
-        <v>11</v>
-      </c>
-      <c r="S36" t="s">
-        <v>12</v>
-      </c>
       <c r="T36" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U36" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V36" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X36" s="3">
         <v>34268.52</v>
       </c>
-      <c r="W36" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X36" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y36" s="3">
         <v>0.00</v>
       </c>
       <c r="Z36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA36" t="s">
         <v>9</v>
@@ -4830,16 +4830,16 @@
         <v>9</v>
       </c>
       <c r="AH36" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="s">
         <v>27</v>
       </c>
       <c r="AJ36" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK36" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:37">
@@ -4892,34 +4892,34 @@
         <v>0.00</v>
       </c>
       <c r="Q37" t="s">
+        <v>10</v>
+      </c>
+      <c r="R37" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37" t="s">
         <v>12</v>
       </c>
-      <c r="R37" t="s">
-        <v>19</v>
-      </c>
-      <c r="S37" t="s">
-        <v>10</v>
-      </c>
       <c r="T37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V37" s="3">
-        <v>0.00</v>
+        <v>34268.52</v>
       </c>
       <c r="W37" s="3">
         <v>0.00</v>
       </c>
       <c r="X37" s="3">
-        <v>34268.52</v>
+        <v>0.00</v>
       </c>
       <c r="Y37" s="3">
         <v>0.00</v>
       </c>
       <c r="Z37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA37" t="s">
         <v>9</v>
@@ -4943,16 +4943,16 @@
         <v>9</v>
       </c>
       <c r="AH37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="s">
         <v>27</v>
       </c>
       <c r="AJ37" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK37" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:37">
@@ -5062,10 +5062,10 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:37">
@@ -5231,34 +5231,34 @@
         <v>0.00</v>
       </c>
       <c r="Q40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S40" t="s">
         <v>10</v>
       </c>
-      <c r="R40" t="s">
-        <v>11</v>
-      </c>
-      <c r="S40" t="s">
-        <v>12</v>
-      </c>
       <c r="T40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U40" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V40" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X40" s="3">
         <v>22617.12</v>
       </c>
-      <c r="W40" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X40" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y40" s="3">
         <v>0.00</v>
       </c>
       <c r="Z40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA40" t="s">
         <v>9</v>
@@ -5282,16 +5282,16 @@
         <v>9</v>
       </c>
       <c r="AH40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI40" t="s">
         <v>101</v>
       </c>
       <c r="AJ40" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AK40" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5344,34 +5344,34 @@
         <v>0.00</v>
       </c>
       <c r="Q41" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41" t="s">
         <v>12</v>
       </c>
-      <c r="R41" t="s">
-        <v>19</v>
-      </c>
-      <c r="S41" t="s">
-        <v>10</v>
-      </c>
       <c r="T41" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V41" s="3">
-        <v>0.00</v>
+        <v>22617.12</v>
       </c>
       <c r="W41" s="3">
         <v>0.00</v>
       </c>
       <c r="X41" s="3">
-        <v>22617.12</v>
+        <v>0.00</v>
       </c>
       <c r="Y41" s="3">
         <v>0.00</v>
       </c>
       <c r="Z41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="s">
         <v>9</v>
@@ -5395,16 +5395,16 @@
         <v>9</v>
       </c>
       <c r="AH41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AI41" t="s">
         <v>101</v>
       </c>
       <c r="AJ41" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:37">
@@ -5683,34 +5683,34 @@
         <v>0.00</v>
       </c>
       <c r="Q44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" t="s">
         <v>12</v>
       </c>
-      <c r="R44" t="s">
-        <v>19</v>
-      </c>
-      <c r="S44" t="s">
-        <v>10</v>
-      </c>
       <c r="T44" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V44" s="3">
-        <v>0.00</v>
+        <v>10707.96</v>
       </c>
       <c r="W44" s="3">
         <v>0.00</v>
       </c>
       <c r="X44" s="3">
-        <v>10707.96</v>
+        <v>0.00</v>
       </c>
       <c r="Y44" s="3">
         <v>0.00</v>
       </c>
       <c r="Z44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA44" t="s">
         <v>9</v>
@@ -5740,10 +5740,10 @@
         <v>112</v>
       </c>
       <c r="AJ44" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="AK44" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:37">
@@ -5796,34 +5796,34 @@
         <v>0.00</v>
       </c>
       <c r="Q45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" t="s">
+        <v>19</v>
+      </c>
+      <c r="S45" t="s">
         <v>10</v>
       </c>
-      <c r="R45" t="s">
-        <v>11</v>
-      </c>
-      <c r="S45" t="s">
-        <v>12</v>
-      </c>
       <c r="T45" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U45" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V45" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X45" s="3">
         <v>10707.96</v>
       </c>
-      <c r="W45" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y45" s="3">
         <v>0.00</v>
       </c>
       <c r="Z45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA45" t="s">
         <v>9</v>
@@ -5853,10 +5853,10 @@
         <v>114</v>
       </c>
       <c r="AJ45" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -5960,10 +5960,10 @@
         <v>9</v>
       </c>
       <c r="AH46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AJ46" t="s">
         <v>23</v>
@@ -6073,10 +6073,10 @@
         <v>9</v>
       </c>
       <c r="AH47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AI47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AJ47" t="s">
         <v>107</v>
@@ -6361,34 +6361,34 @@
         <v>0.00</v>
       </c>
       <c r="Q50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R50" t="s">
+        <v>19</v>
+      </c>
+      <c r="S50" t="s">
         <v>10</v>
       </c>
-      <c r="R50" t="s">
-        <v>11</v>
-      </c>
-      <c r="S50" t="s">
-        <v>12</v>
-      </c>
       <c r="T50" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U50" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V50" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X50" s="3">
         <v>45271.31</v>
       </c>
-      <c r="W50" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X50" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y50" s="3">
         <v>0.00</v>
       </c>
       <c r="Z50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA50" t="s">
         <v>9</v>
@@ -6418,10 +6418,10 @@
         <v>122</v>
       </c>
       <c r="AJ50" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AK50" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:37">
@@ -6474,34 +6474,34 @@
         <v>0.00</v>
       </c>
       <c r="Q51" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51" t="s">
         <v>12</v>
       </c>
-      <c r="R51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S51" t="s">
-        <v>10</v>
-      </c>
       <c r="T51" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V51" s="3">
-        <v>0.00</v>
+        <v>45271.31</v>
       </c>
       <c r="W51" s="3">
         <v>0.00</v>
       </c>
       <c r="X51" s="3">
-        <v>45271.31</v>
+        <v>0.00</v>
       </c>
       <c r="Y51" s="3">
         <v>0.00</v>
       </c>
       <c r="Z51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA51" t="s">
         <v>9</v>
@@ -6531,10 +6531,10 @@
         <v>124</v>
       </c>
       <c r="AJ51" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:37">
@@ -6587,34 +6587,34 @@
         <v>0.00</v>
       </c>
       <c r="Q52" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" t="s">
+        <v>19</v>
+      </c>
+      <c r="S52" t="s">
         <v>10</v>
       </c>
-      <c r="R52" t="s">
-        <v>11</v>
-      </c>
-      <c r="S52" t="s">
-        <v>12</v>
-      </c>
       <c r="T52" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U52" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V52" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X52" s="3">
         <v>13852.31</v>
       </c>
-      <c r="W52" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y52" s="3">
         <v>0.00</v>
       </c>
       <c r="Z52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA52" t="s">
         <v>9</v>
@@ -6644,10 +6644,10 @@
         <v>127</v>
       </c>
       <c r="AJ52" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AK52" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:37">
@@ -6700,34 +6700,34 @@
         <v>0.00</v>
       </c>
       <c r="Q53" t="s">
+        <v>10</v>
+      </c>
+      <c r="R53" t="s">
+        <v>11</v>
+      </c>
+      <c r="S53" t="s">
         <v>12</v>
       </c>
-      <c r="R53" t="s">
-        <v>19</v>
-      </c>
-      <c r="S53" t="s">
-        <v>10</v>
-      </c>
       <c r="T53" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U53" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V53" s="3">
-        <v>0.00</v>
+        <v>13852.31</v>
       </c>
       <c r="W53" s="3">
         <v>0.00</v>
       </c>
       <c r="X53" s="3">
-        <v>13852.31</v>
+        <v>0.00</v>
       </c>
       <c r="Y53" s="3">
         <v>0.00</v>
       </c>
       <c r="Z53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA53" t="s">
         <v>9</v>
@@ -6757,10 +6757,10 @@
         <v>129</v>
       </c>
       <c r="AJ53" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:37">
@@ -6813,34 +6813,34 @@
         <v>0.00</v>
       </c>
       <c r="Q54" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" t="s">
+        <v>19</v>
+      </c>
+      <c r="S54" t="s">
         <v>10</v>
       </c>
-      <c r="R54" t="s">
-        <v>11</v>
-      </c>
-      <c r="S54" t="s">
-        <v>12</v>
-      </c>
       <c r="T54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U54" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="V54" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X54" s="3">
         <v>18931.56</v>
       </c>
-      <c r="W54" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0.00</v>
-      </c>
       <c r="Y54" s="3">
         <v>0.00</v>
       </c>
       <c r="Z54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA54" t="s">
         <v>9</v>
@@ -6864,16 +6864,16 @@
         <v>9</v>
       </c>
       <c r="AH54" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="s">
         <v>33</v>
       </c>
       <c r="AJ54" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK54" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:37">
@@ -6926,34 +6926,34 @@
         <v>0.00</v>
       </c>
       <c r="Q55" t="s">
+        <v>10</v>
+      </c>
+      <c r="R55" t="s">
+        <v>11</v>
+      </c>
+      <c r="S55" t="s">
         <v>12</v>
       </c>
-      <c r="R55" t="s">
-        <v>19</v>
-      </c>
-      <c r="S55" t="s">
-        <v>10</v>
-      </c>
       <c r="T55" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V55" s="3">
-        <v>0.00</v>
+        <v>18931.56</v>
       </c>
       <c r="W55" s="3">
         <v>0.00</v>
       </c>
       <c r="X55" s="3">
-        <v>18931.56</v>
+        <v>0.00</v>
       </c>
       <c r="Y55" s="3">
         <v>0.00</v>
       </c>
       <c r="Z55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA55" t="s">
         <v>9</v>
@@ -6977,16 +6977,16 @@
         <v>9</v>
       </c>
       <c r="AH55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI55" t="s">
         <v>33</v>
       </c>
       <c r="AJ55" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK55" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:37">
@@ -7039,28 +7039,28 @@
         <v>0.00</v>
       </c>
       <c r="Q56" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" t="s">
+        <v>19</v>
+      </c>
+      <c r="S56" t="s">
+        <v>10</v>
+      </c>
+      <c r="T56" t="s">
         <v>134</v>
       </c>
-      <c r="R56" t="s">
-        <v>11</v>
-      </c>
-      <c r="S56" t="s">
-        <v>12</v>
-      </c>
-      <c r="T56" t="s">
-        <v>13</v>
-      </c>
       <c r="U56" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="V56" s="3">
-        <v>53973.80</v>
+        <v>0.00</v>
       </c>
       <c r="W56" s="3">
         <v>0.00</v>
       </c>
       <c r="X56" s="3">
-        <v>0.00</v>
+        <v>12238.21</v>
       </c>
       <c r="Y56" s="3">
         <v>0.00</v>
@@ -7090,16 +7090,16 @@
         <v>9</v>
       </c>
       <c r="AH56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:37">
@@ -7152,67 +7152,67 @@
         <v>0.00</v>
       </c>
       <c r="Q57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R57" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="S57" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="T57" t="s">
+        <v>134</v>
+      </c>
+      <c r="U57" t="s">
+        <v>135</v>
+      </c>
+      <c r="V57" s="3">
+        <v>72485.79</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK57" t="s">
         <v>139</v>
-      </c>
-      <c r="U57" t="s">
-        <v>140</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="W57" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X57" s="3">
-        <v>12238.21</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:37">
@@ -7265,67 +7265,67 @@
         <v>0.00</v>
       </c>
       <c r="Q58" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="R58" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="S58" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="T58" t="s">
+        <v>134</v>
+      </c>
+      <c r="U58" t="s">
+        <v>135</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X58" s="3">
+        <v>114221.38</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK58" t="s">
         <v>139</v>
-      </c>
-      <c r="U58" t="s">
-        <v>140</v>
-      </c>
-      <c r="V58" s="3">
-        <v>72485.79</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:37">
@@ -7378,67 +7378,67 @@
         <v>0.00</v>
       </c>
       <c r="Q59" t="s">
+        <v>143</v>
+      </c>
+      <c r="R59" t="s">
+        <v>11</v>
+      </c>
+      <c r="S59" t="s">
+        <v>12</v>
+      </c>
+      <c r="T59" t="s">
+        <v>13</v>
+      </c>
+      <c r="U59" t="s">
+        <v>14</v>
+      </c>
+      <c r="V59" s="3">
+        <v>53973.80</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI59" t="s">
         <v>145</v>
       </c>
-      <c r="R59" t="s">
-        <v>19</v>
-      </c>
-      <c r="S59" t="s">
-        <v>10</v>
-      </c>
-      <c r="T59" t="s">
+      <c r="AJ59" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK59" t="s">
         <v>139</v>
-      </c>
-      <c r="U59" t="s">
-        <v>140</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X59" s="3">
-        <v>114221.38</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:37">
@@ -7491,7 +7491,7 @@
         <v>0.00</v>
       </c>
       <c r="Q60" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="R60" t="s">
         <v>11</v>
@@ -7551,7 +7551,7 @@
         <v>150</v>
       </c>
       <c r="AK60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:37">
@@ -7604,7 +7604,7 @@
         <v>0.00</v>
       </c>
       <c r="Q61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R61" t="s">
         <v>19</v>
@@ -7613,10 +7613,10 @@
         <v>10</v>
       </c>
       <c r="T61" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="V61" s="3">
         <v>0.00</v>
@@ -7664,7 +7664,7 @@
         <v>150</v>
       </c>
       <c r="AK61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:37">
@@ -7720,16 +7720,16 @@
         <v>12</v>
       </c>
       <c r="R62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T62" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="V62" s="3">
         <v>577354.14</v>
@@ -7777,7 +7777,7 @@
         <v>150</v>
       </c>
       <c r="AK62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:37">
@@ -7839,10 +7839,10 @@
         <v>10</v>
       </c>
       <c r="T63" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U63" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="V63" s="3">
         <v>0.00</v>
@@ -7890,7 +7890,7 @@
         <v>150</v>
       </c>
       <c r="AK63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:37">
@@ -7952,10 +7952,10 @@
         <v>10</v>
       </c>
       <c r="T64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="V64" s="3">
         <v>0.00</v>
@@ -8003,7 +8003,7 @@
         <v>150</v>
       </c>
       <c r="AK64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:37">
@@ -8116,7 +8116,7 @@
         <v>150</v>
       </c>
       <c r="AK65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:37">
@@ -8178,10 +8178,10 @@
         <v>10</v>
       </c>
       <c r="T66" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U66" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="V66" s="3">
         <v>0.00</v>
@@ -8229,7 +8229,7 @@
         <v>150</v>
       </c>
       <c r="AK66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:37">
@@ -8342,7 +8342,7 @@
         <v>150</v>
       </c>
       <c r="AK67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:37">
